--- a/Excel_Paramterization/src/TESTDATA/SAUCE_LOGIN.xlsx
+++ b/Excel_Paramterization/src/TESTDATA/SAUCE_LOGIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>USERNAME</t>
   </si>
@@ -43,6 +43,90 @@
   </si>
   <si>
     <t>password1</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>Username3</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>Username4</t>
+  </si>
+  <si>
+    <t>password4</t>
+  </si>
+  <si>
+    <t>Username5</t>
+  </si>
+  <si>
+    <t>password5</t>
+  </si>
+  <si>
+    <t>Username6</t>
+  </si>
+  <si>
+    <t>password6</t>
+  </si>
+  <si>
+    <t>Username7</t>
+  </si>
+  <si>
+    <t>password7</t>
+  </si>
+  <si>
+    <t>Username8</t>
+  </si>
+  <si>
+    <t>password8</t>
+  </si>
+  <si>
+    <t>Username9</t>
+  </si>
+  <si>
+    <t>password9</t>
+  </si>
+  <si>
+    <t>Username10</t>
+  </si>
+  <si>
+    <t>password10</t>
+  </si>
+  <si>
+    <t>Username11</t>
+  </si>
+  <si>
+    <t>password11</t>
+  </si>
+  <si>
+    <t>Username12</t>
+  </si>
+  <si>
+    <t>password12</t>
+  </si>
+  <si>
+    <t>Username13</t>
+  </si>
+  <si>
+    <t>password13</t>
+  </si>
+  <si>
+    <t>Username14</t>
+  </si>
+  <si>
+    <t>password14</t>
+  </si>
+  <si>
+    <t>Username15</t>
+  </si>
+  <si>
+    <t>password15</t>
   </si>
   <si>
     <t>Amount</t>
@@ -1001,13 +1085,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
@@ -1059,6 +1143,118 @@
       </c>
       <c r="B6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1277,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1114,22 +1310,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
